--- a/mem/memory_map.xlsx
+++ b/mem/memory_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -1229,12 +1229,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="str">
+        <f>"00000000"</f>
+        <v>00000000</v>
+      </c>
+      <c r="B1">
+        <f>HEX2DEC(A1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="str">
+        <f>DEC2HEX(B1+B2-1,8)</f>
+        <v>000003FF</v>
+      </c>
+      <c r="B2">
+        <f>256*4</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="str">
+        <f>DEC2HEX(B1+B2,8)</f>
+        <v>00000400</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
